--- a/TESTYYYY1.xlsx
+++ b/TESTYYYY1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="219">
   <si>
     <t>ID_object</t>
   </si>
@@ -25,6 +25,108 @@
     <t>Ycoord</t>
   </si>
   <si>
+    <t>ObjectData</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Область</t>
+  </si>
+  <si>
+    <t>Район области</t>
+  </si>
+  <si>
+    <t>Населенный пункт</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>ZUArea</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Hihgt</t>
+  </si>
+  <si>
+    <t>WallMaterial</t>
+  </si>
+  <si>
+    <t>BuildYear</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>RoomNumber</t>
+  </si>
+  <si>
+    <t>PhoneAmount</t>
+  </si>
+  <si>
+    <t>Наличие оборудования</t>
+  </si>
+  <si>
+    <t>NaturalLight</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Электроснабжение</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>LegalAddress</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Additionally</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>SaleConditions</t>
+  </si>
+  <si>
+    <t>Вид владения</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Sewerage</t>
   </si>
   <si>
@@ -52,6 +154,12 @@
     <t>есть</t>
   </si>
   <si>
+    <t>53.430544</t>
+  </si>
+  <si>
+    <t>28.208345</t>
+  </si>
+  <si>
     <t>53.549154</t>
   </si>
   <si>
@@ -94,43 +202,504 @@
     <t>30.269192</t>
   </si>
   <si>
-    <t>55.764987</t>
-  </si>
-  <si>
-    <t>27.594874</t>
-  </si>
-  <si>
-    <t>местная</t>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 724-21-94</t>
+  </si>
+  <si>
+    <t>gleser.by@mail.ru</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Брестская область</t>
+  </si>
+  <si>
+    <t>Кобринский район</t>
+  </si>
+  <si>
+    <t>Кобрин</t>
+  </si>
+  <si>
+    <t>Никольская ул., 64-2</t>
+  </si>
+  <si>
+    <t>торговое помещение (помещение, склад, склад+офис, магазин, завод, производство, гараж, открытая площадка, торговое место)</t>
+  </si>
+  <si>
+    <t>48 соток</t>
+  </si>
+  <si>
+    <t>1320 м²</t>
+  </si>
+  <si>
+    <t>1-й этаж</t>
+  </si>
+  <si>
+    <t>5 м</t>
+  </si>
+  <si>
+    <t>панельный</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>нормальный ремонт</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4 телефона</t>
+  </si>
+  <si>
+    <t>380В</t>
+  </si>
+  <si>
+    <t>55 кВт</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 724-21-94</t>
+  </si>
+  <si>
+    <t>отдельный вход, парковка, подъездные пути, рампа, компьютерная сеть, скоростной интернет</t>
+  </si>
+  <si>
+    <t>Рядом ж/д пути.</t>
+  </si>
+  <si>
+    <t>384 377 руб, 388 руб/кв.м</t>
+  </si>
+  <si>
+    <t>2017-07-02</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 384-44-24</t>
+  </si>
+  <si>
+    <t>info@rea.by</t>
+  </si>
+  <si>
+    <t>Риабай</t>
+  </si>
+  <si>
+    <t>Минская область</t>
+  </si>
+  <si>
+    <t>Минский район</t>
+  </si>
+  <si>
+    <t>Каменец</t>
+  </si>
+  <si>
+    <t>Мядельское 24.7 км. от МКАД</t>
+  </si>
+  <si>
+    <t>д.Каменец, 8-а</t>
+  </si>
+  <si>
+    <t>магазин (завод)</t>
+  </si>
+  <si>
+    <t>от 88 до 95 м²</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>кирпичный</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>строительная отделка</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 384-44-24</t>
+  </si>
+  <si>
+    <t>отдельный вход, парковка</t>
+  </si>
+  <si>
+    <t>Продается здание магазина (здание специализированное розничной торговли). Участок 10 соток. Продается на конкурсной основе. Хорошее транспортное сообщение. Звоните и записывайтесь на осмотр.</t>
+  </si>
+  <si>
+    <t>34 167 руб, 388 руб/кв.м 26 208 руб, 388 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>2017-06-28</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 784-38-21, +375 16 221-31-25</t>
+  </si>
+  <si>
+    <t>alfa-active@tut.by</t>
+  </si>
+  <si>
+    <t>Альфа-Актив</t>
+  </si>
+  <si>
+    <t>Брестский район</t>
+  </si>
+  <si>
+    <t>Брест</t>
+  </si>
+  <si>
+    <t>Брестское</t>
+  </si>
+  <si>
+    <t>Торговый павильон в собственность 940037 (павильон)</t>
+  </si>
+  <si>
+    <t>28 м²</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 784-38-21, +375 16 221-31-25</t>
+  </si>
+  <si>
+    <t>8 736 руб, 582 руб/кв.м 8 153 руб, 582 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 25 928-96-02</t>
+  </si>
+  <si>
+    <t>andreas0316@tut.by</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Мядельский район</t>
+  </si>
+  <si>
+    <t>Нарочь</t>
+  </si>
+  <si>
+    <t>Мядельское 137.6 км. от МКАД</t>
+  </si>
+  <si>
+    <t>магазин (офис, помещение, склад, склад+офис, торговое помещение, кафе, бар, сфера услуг, парикмахерская, аптека)</t>
+  </si>
+  <si>
+    <t>от 35 до 190 м²</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>хороший ремонт</t>
+  </si>
+  <si>
+    <t>от 1 до 3</t>
+  </si>
+  <si>
+    <t>1 телефон</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 25 928-96-02</t>
+  </si>
+  <si>
+    <t>отдельный вход, частный сектор, подъездные пути, мебель</t>
+  </si>
+  <si>
+    <t>Отл. вариант для размещ. магазина и т.д. на курорте Нарочь без конкурентов, - при этом можно жить в этом же доме, кол-во жит. д.М.Сырмеж - 350, летом -600, возм. обмен</t>
+  </si>
+  <si>
+    <t>90 270 руб, 388—388 руб/кв.м</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 777-58-73</t>
+  </si>
+  <si>
+    <t>r2@bmk.by</t>
+  </si>
+  <si>
+    <t>Максим Николаевич</t>
+  </si>
+  <si>
+    <t>Могилевская область</t>
+  </si>
+  <si>
+    <t>Могилевский район</t>
+  </si>
+  <si>
+    <t>Могилев</t>
+  </si>
+  <si>
+    <t>Могилёвское 190.0 км. от МКАД</t>
+  </si>
+  <si>
+    <t>Минское Шоссе ул., 8-а</t>
+  </si>
+  <si>
+    <t>магазин (офис, помещение, склад, склад+офис, торговое помещение, кафе, сфера услуг, салон красоты, аптека, здание, банк, игровой бизнес, торговое место)</t>
+  </si>
+  <si>
+    <t>260 м²</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>удовлетворительный ремонт</t>
+  </si>
+  <si>
+    <t>2 телефона</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 777-58-73</t>
+  </si>
+  <si>
+    <t>отдельный вход, оживленное место, подъездные пути, рампа, срочно</t>
+  </si>
+  <si>
+    <t>Возможна аренда по 2 у.е. за 1 кв/м. Возможна рассрочка платежа и арендные каникулы.Зачет стоимости ремонта в счет арендной платы.</t>
+  </si>
+  <si>
+    <t>92 018 руб, 388 руб/кв.м</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 25 630-08-92</t>
+  </si>
+  <si>
+    <t>boss@hta.by</t>
+  </si>
+  <si>
+    <t>Юрий Войтехович</t>
+  </si>
+  <si>
+    <t>Витебская область</t>
+  </si>
+  <si>
+    <t>Лепельский район</t>
+  </si>
+  <si>
+    <t>Лепель</t>
+  </si>
+  <si>
+    <t>Логойское 147.9 км. от МКАД</t>
+  </si>
+  <si>
+    <t>Чуйкова ул., 33</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 25 630-08-92</t>
+  </si>
+  <si>
+    <t>кондиционер, отдельный вход, оживленное место, парковка, видеонаблюдение, готовый бизнес</t>
+  </si>
+  <si>
+    <t>Рядом с ж/д и автовокзалом. Склад - пристройка построен в 2010 г. Цена - с торговым оборудованием.</t>
+  </si>
+  <si>
+    <t>91 435 руб, 388 руб/кв.м</t>
+  </si>
+  <si>
+    <t>2017-06-29</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 684-60-15</t>
+  </si>
+  <si>
+    <t>proventaminsk@gmail.com</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>Полоцкий район</t>
+  </si>
+  <si>
+    <t>Боровуха</t>
+  </si>
+  <si>
+    <t>Армейская ул.</t>
+  </si>
+  <si>
+    <t>торговое помещение (офис, склад, склад+офис, магазин, салон красоты, парикмахерская, производство)</t>
+  </si>
+  <si>
+    <t>375 м²</t>
+  </si>
+  <si>
+    <t>1 этаж</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>без отделки</t>
+  </si>
+  <si>
+    <t>больше пяти</t>
+  </si>
+  <si>
+    <t>75 кВт</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 684-60-15</t>
+  </si>
+  <si>
+    <t>отдельный вход, оживленное место, подъездные пути, скоростной интернет</t>
+  </si>
+  <si>
+    <t>Подвальное помещение административно-торгового назначения.Вход со двора. На первом этаже здания продовольственный магазин и банк.</t>
+  </si>
+  <si>
+    <t>126 767 руб, 388 руб/кв.м</t>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 738-21-84, +375 16 221-25-31</t>
+  </si>
+  <si>
+    <t>Торговый павильон в собственность 970010 (павильон)</t>
+  </si>
+  <si>
+    <t>8 м²</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 738-21-84, +375 16 221-25-31</t>
+  </si>
+  <si>
+    <t>3 883 руб, 582 руб/кв.м 5 436 руб, 777 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>2017-05-10</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 378-98-46</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Борисовский район</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Московское 64.1 км. от МКАД</t>
+  </si>
+  <si>
+    <t>Демина ул.</t>
+  </si>
+  <si>
+    <t>торговое помещение (офис, склад, производство)</t>
+  </si>
+  <si>
+    <t>100 м²</t>
+  </si>
+  <si>
+    <t>1 / 2</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 378-98-46</t>
+  </si>
+  <si>
+    <t>отдельный вход, подъездные пути</t>
+  </si>
+  <si>
+    <t>Торговое помещение, 2 этажа, автомобильная часть стройрынка.</t>
+  </si>
+  <si>
+    <t>46 591 руб, 777 руб/кв.м</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 638-32-84</t>
+  </si>
+  <si>
+    <t>Ратомка</t>
+  </si>
+  <si>
+    <t>Молодечненское</t>
+  </si>
+  <si>
+    <t>Корицкого</t>
+  </si>
+  <si>
+    <t>Продажа – Торговый павильон, отдельно стоящее здание!Ратомка, ул. Корицкого. (Магазин)</t>
+  </si>
+  <si>
+    <t>17.28 соток</t>
+  </si>
+  <si>
+    <t>264.9 м²</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ы  Пожалуйста, скажите что Вы нашли это объявление на сайте Realt.by +375 29 638-32-84</t>
+  </si>
+  <si>
+    <t>Отдельно стоящее здание специализированное под розничную торговлю и кафе.Идеально для магазина или кафе!</t>
+  </si>
+  <si>
+    <t>166 175 руб, 582 руб/кв.м</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
       <name val="Courier New"/>
+      <family val="3"/>
       <charset val="204"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color rgb="FF008080"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,19 +715,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,7 +815,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,27 +992,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="20" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="20" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" customWidth="1"/>
+    <col min="29" max="37" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="13.5" r="1" spans="1:69">
+    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,282 +1033,1184 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1" t="n">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>924138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69">
-      <c r="A3" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>932800</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-    </row>
-    <row r="5" spans="1:69">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-    </row>
-    <row r="6" spans="1:69">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-    </row>
-    <row r="7" spans="1:69">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-    </row>
-    <row r="8" spans="1:69">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-    </row>
-    <row r="9" spans="1:69">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-    </row>
-    <row r="10" spans="1:69">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-    </row>
-    <row r="11" spans="1:69">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-    </row>
-    <row r="12" spans="1:69">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-    </row>
-    <row r="13" spans="1:69">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-    </row>
-    <row r="14" spans="1:69">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
-    </row>
-    <row r="15" spans="1:69">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-    </row>
-    <row r="16" spans="1:69">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-    </row>
-    <row r="17" spans="1:69">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-    </row>
-    <row r="18" spans="1:69">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-    </row>
-    <row r="19" spans="1:69">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-    </row>
-    <row r="20" spans="1:69">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-    </row>
-    <row r="21" spans="1:69">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-    </row>
-    <row r="22" spans="1:69">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-    </row>
-    <row r="23" spans="1:69">
-      <c r="A23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1022995</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>924138</v>
       </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>932800</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1013151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>962020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1112741</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1100470</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1045552</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1058077</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>903338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1022995</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>924138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>932800</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1013151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>962020</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1112741</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1100470</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1045552</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1058077</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>903338</v>
+      </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:69">
-      <c r="A24" t="n">
-        <v>932800</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:69">
-      <c r="A25" t="n">
-        <v>1013151</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>861386</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" t="s">
+        <v>75</v>
+      </c>
+      <c r="S24" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" t="s">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1015172</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:69">
-      <c r="A26" t="n">
-        <v>962020</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s">
+        <v>97</v>
+      </c>
+      <c r="R25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" t="s">
+        <v>100</v>
+      </c>
+      <c r="U25" t="s">
+        <v>101</v>
+      </c>
+      <c r="W25" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1115584</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:69">
-      <c r="A27" t="n">
-        <v>1112741</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:69">
-      <c r="A28" t="n">
-        <v>1100470</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:69">
-      <c r="A29" t="n">
-        <v>1045552</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>992681</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" t="s">
+        <v>126</v>
+      </c>
+      <c r="T27" t="s">
+        <v>127</v>
+      </c>
+      <c r="U27" t="s">
+        <v>128</v>
+      </c>
+      <c r="V27" t="s">
+        <v>129</v>
+      </c>
+      <c r="W27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>940701</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" t="s">
+        <v>145</v>
+      </c>
+      <c r="T28" t="s">
+        <v>146</v>
+      </c>
+      <c r="V28" t="s">
+        <v>147</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>663588</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:69">
-      <c r="A30" t="n">
-        <v>1058077</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" t="s">
+        <v>160</v>
+      </c>
+      <c r="M29" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" t="s">
+        <v>97</v>
+      </c>
+      <c r="R29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" t="s">
+        <v>162</v>
+      </c>
+      <c r="T29" t="s">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s">
+        <v>129</v>
+      </c>
+      <c r="W29" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1073353</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:69">
-      <c r="A31" t="n">
-        <v>903338</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:69">
-      <c r="A32" t="n">
-        <v>1102037</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
+        <v>168</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" t="s">
+        <v>175</v>
+      </c>
+      <c r="P30" t="s">
+        <v>176</v>
+      </c>
+      <c r="R30" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" t="s">
+        <v>177</v>
+      </c>
+      <c r="T30" t="s">
+        <v>178</v>
+      </c>
+      <c r="V30" t="s">
+        <v>179</v>
+      </c>
+      <c r="W30" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1117407</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>435877</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" t="s">
+        <v>196</v>
+      </c>
+      <c r="L32" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O32" t="s">
+        <v>199</v>
+      </c>
+      <c r="P32" t="s">
+        <v>200</v>
+      </c>
+      <c r="R32" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" t="s">
+        <v>201</v>
+      </c>
+      <c r="T32" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>850464</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>210</v>
+      </c>
+      <c r="M33" t="s">
+        <v>211</v>
+      </c>
+      <c r="N33" t="s">
+        <v>212</v>
+      </c>
+      <c r="O33" t="s">
+        <v>213</v>
+      </c>
+      <c r="R33" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" t="s">
+        <v>214</v>
+      </c>
+      <c r="T33" t="s">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s">
+        <v>215</v>
+      </c>
+      <c r="V33" t="s">
+        <v>129</v>
+      </c>
+      <c r="W33" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>